--- a/ExampleTimeResults.xlsx
+++ b/ExampleTimeResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Desktop/Jobs/JuzzyPython/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B444C69-A327-9147-95CB-E6A5D27CA850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEBDFB0-9D64-524E-87FB-161996642E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="1460" windowWidth="22480" windowHeight="18880" xr2:uid="{600C6317-462B-0B4D-B0C8-FECA3F5EBF16}"/>
   </bookViews>
@@ -130,9 +130,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,9 +222,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +543,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,10 +742,10 @@
       <c r="B14" s="1">
         <v>200</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="15">
         <v>6.7000000000000004E-7</v>
       </c>
     </row>
@@ -768,10 +770,10 @@
       <c r="B16" s="1">
         <v>200</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>6.9999999999999997E-7</v>
       </c>
     </row>
@@ -804,10 +806,10 @@
       <c r="B19" s="1">
         <v>200</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>3.8999999999999999E-6</v>
       </c>
     </row>
@@ -821,7 +823,7 @@
       <c r="C20" s="1">
         <v>6.0999999999999997E-4</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>6.3E-5</v>
       </c>
     </row>
@@ -854,7 +856,7 @@
       <c r="B23" s="1">
         <v>200</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="14">
         <v>4.4130000000000003E-2</v>
       </c>
       <c r="D23" s="1">
@@ -868,7 +870,7 @@
       <c r="B24" s="1">
         <v>200</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="14">
         <v>6.8169999999999994E-2</v>
       </c>
       <c r="D24" s="1">
@@ -882,7 +884,7 @@
       <c r="B25" s="1">
         <v>200</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="14">
         <v>9.2630000000000004E-2</v>
       </c>
       <c r="D25" s="1">
@@ -904,7 +906,7 @@
       <c r="B27" s="1">
         <v>200</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>63.642099999999999</v>
       </c>
       <c r="D27" s="1">
@@ -918,8 +920,8 @@
       <c r="B28" s="1">
         <v>200</v>
       </c>
-      <c r="C28" s="14">
-        <v>83.988919999999993</v>
+      <c r="C28" s="13">
+        <v>60.195900000000002</v>
       </c>
       <c r="D28" s="1">
         <v>4.82</v>
@@ -932,7 +934,7 @@
       <c r="B29" s="1">
         <v>200</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>20.399940000000001</v>
       </c>
       <c r="D29" s="1">
@@ -946,7 +948,7 @@
       <c r="B30" s="1">
         <v>200</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>3.0754199999999998</v>
       </c>
       <c r="D30" s="1">
